--- a/input_data/admin_data/CRI/wage_CRI_2001.xlsx
+++ b/input_data/admin_data/CRI/wage_CRI_2001.xlsx
@@ -164,7 +164,7 @@
         <v>0.19367972016334534</v>
       </c>
       <c r="I3">
-        <v>8.7267227172851563</v>
+        <v>8.7267227172851562</v>
       </c>
     </row>
     <row r="4">
